--- a/Phenoloxidase Activity data/Data for 150 samples/16. Phenoloxidase 15-08-24 (SEG 16 - 24).xlsx
+++ b/Phenoloxidase Activity data/Data for 150 samples/16. Phenoloxidase 15-08-24 (SEG 16 - 24).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\Data for 150 samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Original data" sheetId="2" r:id="rId1"/>
@@ -1002,11 +1002,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="693878360"/>
-        <c:axId val="693867776"/>
+        <c:axId val="237202280"/>
+        <c:axId val="294090360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="693878360"/>
+        <c:axId val="237202280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,12 +1063,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693867776"/>
+        <c:crossAx val="294090360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="693867776"/>
+        <c:axId val="294090360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,7 +1125,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693878360"/>
+        <c:crossAx val="237202280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1189,7 +1189,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1264,7 +1263,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1359,11 +1357,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="693889728"/>
-        <c:axId val="693890120"/>
+        <c:axId val="295527936"/>
+        <c:axId val="295528328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="693889728"/>
+        <c:axId val="295527936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1420,12 +1418,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693890120"/>
+        <c:crossAx val="295528328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="693890120"/>
+        <c:axId val="295528328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1482,7 +1480,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693889728"/>
+        <c:crossAx val="295527936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1546,7 +1544,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1751,11 +1748,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="693894824"/>
-        <c:axId val="693895608"/>
+        <c:axId val="295527544"/>
+        <c:axId val="295528720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="693894824"/>
+        <c:axId val="295527544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1812,12 +1809,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693895608"/>
+        <c:crossAx val="295528720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="693895608"/>
+        <c:axId val="295528720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1874,7 +1871,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693894824"/>
+        <c:crossAx val="295527544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2143,11 +2140,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="693871304"/>
-        <c:axId val="693867384"/>
+        <c:axId val="294085656"/>
+        <c:axId val="294089968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="693871304"/>
+        <c:axId val="294085656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2204,12 +2201,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693867384"/>
+        <c:crossAx val="294089968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="693867384"/>
+        <c:axId val="294089968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2266,7 +2263,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693871304"/>
+        <c:crossAx val="294085656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2330,6 +2327,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2534,11 +2532,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="693877968"/>
-        <c:axId val="693870912"/>
+        <c:axId val="294087616"/>
+        <c:axId val="294091536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="693877968"/>
+        <c:axId val="294087616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2595,12 +2593,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693870912"/>
+        <c:crossAx val="294091536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="693870912"/>
+        <c:axId val="294091536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2657,7 +2655,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693877968"/>
+        <c:crossAx val="294087616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2721,6 +2719,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2925,11 +2924,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="693869344"/>
-        <c:axId val="693866600"/>
+        <c:axId val="294088008"/>
+        <c:axId val="294088400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="693869344"/>
+        <c:axId val="294088008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,12 +2985,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693866600"/>
+        <c:crossAx val="294088400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="693866600"/>
+        <c:axId val="294088400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3048,7 +3047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693869344"/>
+        <c:crossAx val="294088008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3112,6 +3111,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3316,11 +3316,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="693875224"/>
-        <c:axId val="693868168"/>
+        <c:axId val="294092320"/>
+        <c:axId val="294089576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="693875224"/>
+        <c:axId val="294092320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3377,12 +3377,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693868168"/>
+        <c:crossAx val="294089576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="693868168"/>
+        <c:axId val="294089576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3439,7 +3439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693875224"/>
+        <c:crossAx val="294092320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3503,6 +3503,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3577,6 +3578,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3715,11 +3717,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="693868952"/>
-        <c:axId val="693871696"/>
+        <c:axId val="294089184"/>
+        <c:axId val="294093104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="693868952"/>
+        <c:axId val="294089184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3776,12 +3778,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693871696"/>
+        <c:crossAx val="294093104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="693871696"/>
+        <c:axId val="294093104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3838,7 +3840,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693868952"/>
+        <c:crossAx val="294089184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3902,6 +3904,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4120,11 +4123,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="693878752"/>
-        <c:axId val="693872480"/>
+        <c:axId val="294091144"/>
+        <c:axId val="294086048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="693878752"/>
+        <c:axId val="294091144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4181,12 +4184,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693872480"/>
+        <c:crossAx val="294086048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="693872480"/>
+        <c:axId val="294086048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4243,7 +4246,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693878752"/>
+        <c:crossAx val="294091144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4307,6 +4310,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4511,11 +4515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="693866992"/>
-        <c:axId val="693874440"/>
+        <c:axId val="295524016"/>
+        <c:axId val="295522840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="693866992"/>
+        <c:axId val="295524016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4572,12 +4576,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693874440"/>
+        <c:crossAx val="295522840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="693874440"/>
+        <c:axId val="295522840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4634,7 +4638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693866992"/>
+        <c:crossAx val="295524016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4698,6 +4702,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4902,11 +4907,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="693889336"/>
-        <c:axId val="693882280"/>
+        <c:axId val="295529896"/>
+        <c:axId val="295526760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="693889336"/>
+        <c:axId val="295529896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4963,12 +4968,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693882280"/>
+        <c:crossAx val="295526760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="693882280"/>
+        <c:axId val="295526760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5025,7 +5030,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693889336"/>
+        <c:crossAx val="295529896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11795,8 +11800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124:L126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15586,8 +15591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W140"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M140" sqref="M140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L146" sqref="L146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19815,7 +19820,7 @@
   <dimension ref="A2:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20391,10 +20396,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20753,11 +20758,6 @@
         <v>18.648555312535972</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F15">
-        <v>6.2E-2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
